--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件单独赔偿件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件单独赔偿件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,700 +503,294 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2" t="n">
+        <v>88</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
       <c r="M2" t="n">
-        <v>2502</v>
+        <v>305</v>
       </c>
       <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>91</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>2765</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>291</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G4" t="n">
-        <v>31</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>195</v>
-      </c>
-      <c r="J4" t="n">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>1005</v>
+        <v>222</v>
       </c>
       <c r="N4" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="E5" t="n">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="J5" t="n">
-        <v>28</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1023</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>483</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>189</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
         <v>53</v>
       </c>
-      <c r="D6" t="n">
-        <v>166</v>
-      </c>
-      <c r="E6" t="n">
-        <v>171</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>72</v>
-      </c>
       <c r="I6" t="n">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="J6" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>1106</v>
+        <v>394</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>81</v>
       </c>
-      <c r="D7" t="n">
-        <v>401</v>
-      </c>
       <c r="E7" t="n">
-        <v>813</v>
+        <v>392</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
-      </c>
-      <c r="G7" t="n">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>297</v>
+        <v>119</v>
       </c>
       <c r="I7" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="J7" t="n">
-        <v>74</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>2418</v>
+        <v>814</v>
       </c>
       <c r="N7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E8" t="n">
-        <v>126</v>
+        <v>514</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="I8" t="n">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" t="n">
         <v>2</v>
       </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>492</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>87</v>
-      </c>
-      <c r="C9" t="n">
-        <v>181</v>
-      </c>
-      <c r="D9" t="n">
-        <v>278</v>
-      </c>
-      <c r="E9" t="n">
-        <v>618</v>
-      </c>
-      <c r="F9" t="n">
-        <v>68</v>
-      </c>
-      <c r="G9" t="n">
-        <v>14</v>
-      </c>
-      <c r="H9" t="n">
-        <v>243</v>
-      </c>
-      <c r="I9" t="n">
-        <v>440</v>
-      </c>
-      <c r="J9" t="n">
-        <v>56</v>
-      </c>
-      <c r="K9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2046</v>
-      </c>
-      <c r="N9" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>13</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>128</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>21</v>
-      </c>
-      <c r="I10" t="n">
-        <v>85</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>342</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D11" t="n">
-        <v>61</v>
-      </c>
-      <c r="E11" t="n">
-        <v>136</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>79</v>
-      </c>
-      <c r="I11" t="n">
-        <v>86</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>394</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>62</v>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>31</v>
-      </c>
-      <c r="I12" t="n">
-        <v>88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>305</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" t="n">
-        <v>95</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>33</v>
-      </c>
-      <c r="I13" t="n">
-        <v>91</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>291</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>37</v>
-      </c>
-      <c r="E14" t="n">
-        <v>110</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>17</v>
-      </c>
-      <c r="I14" t="n">
-        <v>40</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>222</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>35</v>
-      </c>
-      <c r="E15" t="n">
-        <v>145</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>40</v>
-      </c>
-      <c r="I15" t="n">
-        <v>60</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>309</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>13</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>40</v>
-      </c>
-      <c r="E16" t="n">
-        <v>189</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>53</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>394</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>20</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>81</v>
-      </c>
-      <c r="E17" t="n">
-        <v>392</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>119</v>
-      </c>
-      <c r="I17" t="n">
-        <v>150</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>814</v>
-      </c>
-      <c r="N17" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>61</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="n">
-        <v>85</v>
-      </c>
-      <c r="E18" t="n">
-        <v>514</v>
-      </c>
-      <c r="F18" t="n">
-        <v>13</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>123</v>
-      </c>
-      <c r="I18" t="n">
-        <v>276</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
         <v>1093</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
